--- a/src/test/java/com/nordson/testData/LoginData.xlsx
+++ b/src/test/java/com/nordson/testData/LoginData.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2EF05ACD-A67C-471B-B8E2-2903BFB1F628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_Nordosn_Work\nordsonomu_automation\nordson.omu\src\test\java\com\nordson\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC09744-CF51-4C02-80FF-004DEA783277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17328" windowHeight="13224" xr2:uid="{0DCA89EA-4F37-48B5-B8D2-472A325DFB74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0DCA89EA-4F37-48B5-B8D2-472A325DFB74}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
     <sheet name="AdminLogin" sheetId="1" r:id="rId2"/>
+    <sheet name="UserData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <oleSize ref="A1:P24"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Password</t>
   </si>
@@ -34,6 +39,9 @@
   </si>
   <si>
     <t>pass1234</t>
+  </si>
+  <si>
+    <t>autouser4@yopmail.com</t>
   </si>
   <si>
     <t>raviuser@yopmail.com</t>
@@ -458,7 +466,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,10 +485,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>12345678</v>
+        <v>123456789</v>
       </c>
     </row>
   </sheetData>
@@ -527,4 +535,42 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86030FE-F38A-4D5B-A289-B31333643154}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.77734375" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{286A2641-4B9E-48E5-9BEC-91D2B9AAF28B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/com/nordson/testData/LoginData.xlsx
+++ b/src/test/java/com/nordson/testData/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_Nordosn_Work\nordsonomu_automation\nordson.omu\src\test\java\com\nordson\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC09744-CF51-4C02-80FF-004DEA783277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13F8447-DFE6-4F97-BAB8-857E816C492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0DCA89EA-4F37-48B5-B8D2-472A325DFB74}"/>
   </bookViews>
